--- a/docs/03_strategies/DCA_Conditional_Buy_LR_with_TrailingStop/Bear/Binance_BTC-USDT_1d/trades.xlsx
+++ b/docs/03_strategies/DCA_Conditional_Buy_LR_with_TrailingStop/Bear/Binance_BTC-USDT_1d/trades.xlsx
@@ -452,284 +452,284 @@
         <v>82</v>
       </c>
       <c r="C2">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D2">
         <v>0.03873328458999999</v>
       </c>
       <c r="E2">
-        <v>0.04332104860703095</v>
+        <v>0.04183080288549258</v>
       </c>
       <c r="F2">
-        <v>5.86775017778259</v>
+        <v>3.961725899935013</v>
       </c>
       <c r="G2">
-        <v>0.1184450031954016</v>
+        <v>0.07997045250049073</v>
       </c>
       <c r="H2" s="2">
         <v>44594</v>
       </c>
       <c r="I2" s="2">
-        <v>44601</v>
+        <v>44599</v>
       </c>
       <c r="J2" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3">
-        <v>1260</v>
+        <v>1168</v>
       </c>
       <c r="B3">
-        <v>124</v>
+        <v>68</v>
       </c>
       <c r="C3">
-        <v>128</v>
+        <v>90</v>
       </c>
       <c r="D3">
-        <v>0.03931961033</v>
+        <v>0.04239447212</v>
       </c>
       <c r="E3">
-        <v>0.04155490471642183</v>
+        <v>0.04429053450867629</v>
       </c>
       <c r="F3">
-        <v>2.816470926891507</v>
+        <v>2.214600869973906</v>
       </c>
       <c r="G3">
-        <v>0.05684935246462386</v>
+        <v>0.04472428347048107</v>
       </c>
       <c r="H3" s="2">
-        <v>44636</v>
+        <v>44580</v>
       </c>
       <c r="I3" s="2">
-        <v>44640</v>
+        <v>44602</v>
       </c>
       <c r="J3" s="3">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4">
-        <v>1168</v>
+        <v>1260</v>
       </c>
       <c r="B4">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C4">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="D4">
-        <v>0.04240649412999999</v>
+        <v>0.03931961033</v>
       </c>
       <c r="E4">
-        <v>0.04728321038249495</v>
+        <v>0.04155490471642183</v>
       </c>
       <c r="F4">
-        <v>5.696004582914112</v>
+        <v>2.816470926891507</v>
       </c>
       <c r="G4">
-        <v>0.1149992790619534</v>
+        <v>0.05684935246462386</v>
       </c>
       <c r="H4" s="2">
-        <v>44643</v>
+        <v>44636</v>
       </c>
       <c r="I4" s="2">
-        <v>44650</v>
+        <v>44640</v>
       </c>
       <c r="J4" s="3">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5">
-        <v>1114</v>
+        <v>1168</v>
       </c>
       <c r="B5">
-        <v>110</v>
+        <v>131</v>
       </c>
       <c r="C5">
         <v>138</v>
       </c>
       <c r="D5">
-        <v>0.04446562119999999</v>
+        <v>0.04240649412999999</v>
       </c>
       <c r="E5">
         <v>0.04728321038249495</v>
       </c>
       <c r="F5">
-        <v>3.138794349299384</v>
+        <v>5.696004582914112</v>
       </c>
       <c r="G5">
-        <v>0.06336556437212115</v>
+        <v>0.1149992790619534</v>
       </c>
       <c r="H5" s="2">
-        <v>44622</v>
+        <v>44643</v>
       </c>
       <c r="I5" s="2">
         <v>44650</v>
       </c>
       <c r="J5" s="3">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6">
-        <v>1111</v>
+        <v>1114</v>
       </c>
       <c r="B6">
-        <v>96</v>
+        <v>110</v>
       </c>
       <c r="C6">
         <v>138</v>
       </c>
       <c r="D6">
-        <v>0.04458939484999999</v>
+        <v>0.04446562119999999</v>
       </c>
       <c r="E6">
         <v>0.04728321038249495</v>
       </c>
       <c r="F6">
-        <v>2.9928290566019</v>
+        <v>3.138794349299384</v>
       </c>
       <c r="G6">
-        <v>0.0604138168180357</v>
+        <v>0.06336556437212115</v>
       </c>
       <c r="H6" s="2">
-        <v>44608</v>
+        <v>44622</v>
       </c>
       <c r="I6" s="2">
         <v>44650</v>
       </c>
       <c r="J6" s="3">
-        <v>42</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7">
-        <v>1123</v>
+        <v>1111</v>
       </c>
       <c r="B7">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C7">
         <v>138</v>
       </c>
       <c r="D7">
-        <v>0.04408704299999999</v>
+        <v>0.04458939484999999</v>
       </c>
       <c r="E7">
         <v>0.04728321038249495</v>
       </c>
       <c r="F7">
-        <v>3.589295970541839</v>
+        <v>2.9928290566019</v>
       </c>
       <c r="G7">
-        <v>0.07249675108614029</v>
+        <v>0.0604138168180357</v>
       </c>
       <c r="H7" s="2">
-        <v>44601</v>
+        <v>44608</v>
       </c>
       <c r="I7" s="2">
         <v>44650</v>
       </c>
       <c r="J7" s="3">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8">
-        <v>1168</v>
+        <v>1123</v>
       </c>
       <c r="B8">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C8">
         <v>138</v>
       </c>
       <c r="D8">
-        <v>0.04239447212</v>
+        <v>0.04408704299999999</v>
       </c>
       <c r="E8">
         <v>0.04728321038249495</v>
       </c>
       <c r="F8">
-        <v>5.710046290594105</v>
+        <v>3.589295970541839</v>
       </c>
       <c r="G8">
-        <v>0.1153154649185653</v>
+        <v>0.07249675108614029</v>
       </c>
       <c r="H8" s="2">
-        <v>44580</v>
+        <v>44601</v>
       </c>
       <c r="I8" s="2">
         <v>44650</v>
       </c>
       <c r="J8" s="3">
-        <v>70</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9">
-        <v>2560</v>
+        <v>2440</v>
       </c>
       <c r="B9">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="C9">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D9">
-        <v>0.01935061128</v>
+        <v>0.02030156128</v>
       </c>
       <c r="E9">
-        <v>0.02081059581652085</v>
+        <v>0.02105258700999914</v>
       </c>
       <c r="F9">
-        <v>3.737560413493384</v>
+        <v>1.832502781197901</v>
       </c>
       <c r="G9">
-        <v>0.07544901374923674</v>
+        <v>0.0369934961967191</v>
       </c>
       <c r="H9" s="2">
-        <v>44755</v>
+        <v>44741</v>
       </c>
       <c r="I9" s="2">
-        <v>44759</v>
+        <v>44752</v>
       </c>
       <c r="J9" s="3">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10">
-        <v>2440</v>
+        <v>2560</v>
       </c>
       <c r="B10">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="C10">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D10">
-        <v>0.02030156128</v>
+        <v>0.01935061128</v>
       </c>
       <c r="E10">
-        <v>0.02286325948607355</v>
+        <v>0.02081059581652085</v>
       </c>
       <c r="F10">
-        <v>6.250543622819458</v>
+        <v>3.737560413493384</v>
       </c>
       <c r="G10">
-        <v>0.126182325129703</v>
+        <v>0.07544901374923674</v>
       </c>
       <c r="H10" s="2">
-        <v>44741</v>
+        <v>44755</v>
       </c>
       <c r="I10" s="2">
-        <v>44763</v>
+        <v>44759</v>
       </c>
       <c r="J10" s="3">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -868,28 +868,28 @@
         <v>348</v>
       </c>
       <c r="C15">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="D15">
         <v>0.02009909902</v>
       </c>
       <c r="E15">
-        <v>0.02054566553560992</v>
+        <v>0.02084999676503673</v>
       </c>
       <c r="F15">
-        <v>1.100786460978466</v>
+        <v>1.85096294151555</v>
       </c>
       <c r="G15">
-        <v>0.02221823551222668</v>
+        <v>0.03735977141510372</v>
       </c>
       <c r="H15" s="2">
         <v>44860</v>
       </c>
       <c r="I15" s="2">
-        <v>44864</v>
+        <v>44872</v>
       </c>
       <c r="J15" s="3">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -900,92 +900,92 @@
         <v>306</v>
       </c>
       <c r="C16">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="D16">
         <v>0.02019379362</v>
       </c>
       <c r="E16">
-        <v>0.02060070283609576</v>
+        <v>0.02084999676503673</v>
       </c>
       <c r="F16">
-        <v>0.9981483070828987</v>
+        <v>1.609666314775108</v>
       </c>
       <c r="G16">
-        <v>0.02015021168151176</v>
+        <v>0.03249528827445425</v>
       </c>
       <c r="H16" s="2">
         <v>44818</v>
       </c>
       <c r="I16" s="2">
-        <v>44865</v>
+        <v>44872</v>
       </c>
       <c r="J16" s="3">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17">
-        <v>2433</v>
+        <v>2416</v>
       </c>
       <c r="B17">
-        <v>327</v>
+        <v>355</v>
       </c>
       <c r="C17">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="D17">
-        <v>0.02035815782</v>
+        <v>0.02050329281</v>
       </c>
       <c r="E17">
-        <v>0.02084999676503673</v>
+        <v>0.01706998</v>
       </c>
       <c r="F17">
-        <v>1.196644153274375</v>
+        <v>-8.294883748959997</v>
       </c>
       <c r="G17">
-        <v>0.02415930505035924</v>
+        <v>-0.167451776737319</v>
       </c>
       <c r="H17" s="2">
-        <v>44839</v>
+        <v>44867</v>
       </c>
       <c r="I17" s="2">
-        <v>44872</v>
+        <v>44877</v>
       </c>
       <c r="J17" s="3">
-        <v>33</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18">
-        <v>2416</v>
+        <v>2433</v>
       </c>
       <c r="B18">
-        <v>355</v>
+        <v>327</v>
       </c>
       <c r="C18">
         <v>365</v>
       </c>
       <c r="D18">
-        <v>0.02050329281</v>
+        <v>0.02035815782</v>
       </c>
       <c r="E18">
         <v>0.01706998</v>
       </c>
       <c r="F18">
-        <v>-8.294883748959997</v>
+        <v>-8.000136636059995</v>
       </c>
       <c r="G18">
-        <v>-0.167451776737319</v>
+        <v>-0.1615164716313217</v>
       </c>
       <c r="H18" s="2">
-        <v>44867</v>
+        <v>44839</v>
       </c>
       <c r="I18" s="2">
         <v>44877</v>
       </c>
       <c r="J18" s="3">
-        <v>10</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:10">
